--- a/Project1/s04_1.xlsx
+++ b/Project1/s04_1.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>16.55485867062715</v>
+        <v>36.91</v>
       </c>
       <c r="B2">
-        <v>16.15452763447876</v>
+        <v>36.24574522639878</v>
       </c>
       <c r="C2">
-        <v>16.95518970677553</v>
+        <v>37.57425477360121</v>
       </c>
       <c r="D2">
-        <v>15.9426051852116</v>
+        <v>35.89410998993713</v>
       </c>
       <c r="E2">
-        <v>17.1671121560427</v>
+        <v>37.92589001006287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>16.28177347048494</v>
+        <v>36.91</v>
       </c>
       <c r="B3">
-        <v>15.74578629521674</v>
+        <v>35.97060189030208</v>
       </c>
       <c r="C3">
-        <v>16.81776064575315</v>
+        <v>37.84939810969791</v>
       </c>
       <c r="D3">
-        <v>15.46205182373668</v>
+        <v>35.47331456988974</v>
       </c>
       <c r="E3">
-        <v>17.10149511723321</v>
+        <v>38.34668543011025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>16.47854717782972</v>
+        <v>36.91</v>
       </c>
       <c r="B4">
-        <v>15.8153336468316</v>
+        <v>35.75947698295253</v>
       </c>
       <c r="C4">
-        <v>17.14176070882783</v>
+        <v>38.06052301704747</v>
       </c>
       <c r="D4">
-        <v>15.46424961090852</v>
+        <v>35.15042688766945</v>
       </c>
       <c r="E4">
-        <v>17.49284474475092</v>
+        <v>38.66957311233055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>16.63181824162918</v>
+        <v>36.91</v>
       </c>
       <c r="B5">
-        <v>15.84421745360615</v>
+        <v>35.58149045279756</v>
       </c>
       <c r="C5">
-        <v>17.41941902965221</v>
+        <v>38.23850954720243</v>
       </c>
       <c r="D5">
-        <v>15.42728678130942</v>
+        <v>34.87821997987425</v>
       </c>
       <c r="E5">
-        <v>17.83634970194893</v>
+        <v>38.94178002012574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>16.65092762122356</v>
+        <v>36.91</v>
       </c>
       <c r="B6">
-        <v>15.73932960198022</v>
+        <v>35.42468117184895</v>
       </c>
       <c r="C6">
-        <v>17.56252564046691</v>
+        <v>38.39531882815105</v>
       </c>
       <c r="D6">
-        <v>15.25675876049907</v>
+        <v>34.63840087983647</v>
       </c>
       <c r="E6">
-        <v>18.04509648194805</v>
+        <v>39.18159912016352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>16.54351293352596</v>
+        <v>36.91</v>
       </c>
       <c r="B7">
-        <v>15.50703800101167</v>
+        <v>35.28291474546906</v>
       </c>
       <c r="C7">
-        <v>17.57998786604026</v>
+        <v>38.53708525453094</v>
       </c>
       <c r="D7">
-        <v>14.95836131479783</v>
+        <v>34.4215878405551</v>
       </c>
       <c r="E7">
-        <v>18.1286645522541</v>
+        <v>39.3984121594449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>16.30143140629579</v>
+        <v>36.91</v>
       </c>
       <c r="B8">
-        <v>15.13847686364558</v>
+        <v>35.15254706186366</v>
       </c>
       <c r="C8">
-        <v>17.464385948946</v>
+        <v>38.66745293813633</v>
       </c>
       <c r="D8">
-        <v>14.52284591622771</v>
+        <v>34.22220767397874</v>
       </c>
       <c r="E8">
-        <v>18.08001689636387</v>
+        <v>39.59779232602126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>16.52678309984656</v>
+        <v>36.91</v>
       </c>
       <c r="B9">
-        <v>15.23531101259149</v>
+        <v>35.03120378060417</v>
       </c>
       <c r="C9">
-        <v>17.81825518710162</v>
+        <v>38.78879621939582</v>
       </c>
       <c r="D9">
-        <v>14.55164698662817</v>
+        <v>34.03662913977949</v>
       </c>
       <c r="E9">
-        <v>18.50191921306494</v>
+        <v>39.7833708602205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>16.64379960956934</v>
+        <v>36.91</v>
       </c>
       <c r="B10">
-        <v>15.22150175284417</v>
+        <v>34.91723567919635</v>
       </c>
       <c r="C10">
-        <v>18.0660974662945</v>
+        <v>38.90276432080365</v>
       </c>
       <c r="D10">
-        <v>14.46858274790118</v>
+        <v>33.86232996981138</v>
       </c>
       <c r="E10">
-        <v>18.81901647123749</v>
+        <v>39.95767003018861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>16.61695968135877</v>
+        <v>36.91</v>
       </c>
       <c r="B11">
-        <v>15.06135798189365</v>
+        <v>34.80944196878066</v>
       </c>
       <c r="C11">
-        <v>18.17256138082388</v>
+        <v>39.01055803121933</v>
       </c>
       <c r="D11">
-        <v>14.23787218522257</v>
+        <v>33.69747371598995</v>
       </c>
       <c r="E11">
-        <v>18.99604717749496</v>
+        <v>40.12252628401004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>16.30753321809695</v>
+        <v>36.91</v>
       </c>
       <c r="B12">
-        <v>14.61604370574103</v>
+        <v>34.70691615076229</v>
       </c>
       <c r="C12">
-        <v>17.99902273045286</v>
+        <v>39.1130838492377</v>
       </c>
       <c r="D12">
-        <v>13.72062324617086</v>
+        <v>33.54067400835108</v>
       </c>
       <c r="E12">
-        <v>18.89444319002303</v>
+        <v>40.27932599164891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>16.03704394253247</v>
+        <v>36.91</v>
       </c>
       <c r="B13">
-        <v>14.20701885576759</v>
+        <v>34.60895396590506</v>
       </c>
       <c r="C13">
-        <v>17.86706902929736</v>
+        <v>39.21104603409493</v>
       </c>
       <c r="D13">
-        <v>13.23826209301733</v>
+        <v>33.3908537753389</v>
       </c>
       <c r="E13">
-        <v>18.83582579204762</v>
+        <v>40.4291462246611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>15.89190161315962</v>
+        <v>36.91</v>
       </c>
       <c r="B14">
-        <v>13.89029840008934</v>
+        <v>34.51499535380908</v>
       </c>
       <c r="C14">
-        <v>17.89350482622991</v>
+        <v>39.30500464619091</v>
       </c>
       <c r="D14">
-        <v>12.83071366377712</v>
+        <v>33.24715647848669</v>
       </c>
       <c r="E14">
-        <v>18.95308956254212</v>
+        <v>40.57284352151331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>15.61881641301742</v>
+        <v>36.91</v>
       </c>
       <c r="B15">
-        <v>13.47533301270929</v>
+        <v>34.42458621965515</v>
       </c>
       <c r="C15">
-        <v>17.76229981332554</v>
+        <v>39.39541378034484</v>
       </c>
       <c r="D15">
-        <v>12.34064144213509</v>
+        <v>33.1088876396984</v>
       </c>
       <c r="E15">
-        <v>18.89699138389975</v>
+        <v>40.71111236030159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15.81559012036219</v>
+        <v>36.91</v>
       </c>
       <c r="B16">
-        <v>13.52730201688468</v>
+        <v>34.33735232420371</v>
       </c>
       <c r="C16">
-        <v>18.1038782238397</v>
+        <v>39.48264767579629</v>
       </c>
       <c r="D16">
-        <v>12.31595546683073</v>
+        <v>32.97547490944801</v>
       </c>
       <c r="E16">
-        <v>19.31522477389366</v>
+        <v>40.84452509055198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>15.96886118416165</v>
+        <v>36.91</v>
       </c>
       <c r="B17">
-        <v>13.53288504516032</v>
+        <v>34.25298090559513</v>
       </c>
       <c r="C17">
-        <v>18.40483732316298</v>
+        <v>39.56701909440486</v>
       </c>
       <c r="D17">
-        <v>12.24335717167767</v>
+        <v>32.84643995974852</v>
       </c>
       <c r="E17">
-        <v>19.69436519664563</v>
+        <v>40.97356004025148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>15.98797056375604</v>
+        <v>36.91</v>
       </c>
       <c r="B18">
-        <v>13.4014645693598</v>
+        <v>34.17120740612143</v>
       </c>
       <c r="C18">
-        <v>18.57447655815228</v>
+        <v>39.64879259387856</v>
       </c>
       <c r="D18">
-        <v>12.03225100388073</v>
+        <v>32.72137818450099</v>
       </c>
       <c r="E18">
-        <v>19.94369012363134</v>
+        <v>41.098621815499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>15.88055587605844</v>
+        <v>36.91</v>
       </c>
       <c r="B19">
-        <v>13.14071952544218</v>
+        <v>34.09180567090627</v>
       </c>
       <c r="C19">
-        <v>18.62039222667469</v>
+        <v>39.72819432909372</v>
       </c>
       <c r="D19">
-        <v>11.69033777238072</v>
+        <v>32.59994370966924</v>
       </c>
       <c r="E19">
-        <v>20.07077397973615</v>
+        <v>41.22005629033075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>15.63847434882826</v>
+        <v>36.91</v>
       </c>
       <c r="B20">
-        <v>12.74254791451313</v>
+        <v>34.01458056910781</v>
       </c>
       <c r="C20">
-        <v>18.53440078314339</v>
+        <v>39.80541943089219</v>
       </c>
       <c r="D20">
-        <v>11.20953706238895</v>
+        <v>32.48183810838343</v>
       </c>
       <c r="E20">
-        <v>20.06741163526757</v>
+        <v>41.33816189161656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>15.86382604237903</v>
+        <v>36.91</v>
       </c>
       <c r="B21">
-        <v>12.80908979037323</v>
+        <v>33.93936234369789</v>
       </c>
       <c r="C21">
-        <v>18.91856229438483</v>
+        <v>39.88063765630211</v>
       </c>
       <c r="D21">
-        <v>11.19201009897923</v>
+        <v>32.36680175967295</v>
       </c>
       <c r="E21">
-        <v>20.53564198577884</v>
+        <v>41.45319824032705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>15.98084255210181</v>
+        <v>36.91</v>
       </c>
       <c r="B22">
-        <v>12.76461581055077</v>
+        <v>33.86600221923667</v>
       </c>
       <c r="C22">
-        <v>19.19706929365285</v>
+        <v>39.95399778076332</v>
       </c>
       <c r="D22">
-        <v>11.06204821792622</v>
+        <v>32.25460713113744</v>
       </c>
       <c r="E22">
-        <v>20.89963688627741</v>
+        <v>41.56539286886255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>15.95400262389124</v>
+        <v>36.91</v>
       </c>
       <c r="B23">
-        <v>12.57364275842372</v>
+        <v>33.7943689413629</v>
       </c>
       <c r="C23">
-        <v>19.33436248935876</v>
+        <v>40.02563105863709</v>
       </c>
       <c r="D23">
-        <v>10.78418833843522</v>
+        <v>32.14505348655393</v>
       </c>
       <c r="E23">
-        <v>21.12381690934726</v>
+        <v>41.67494651344607</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>15.64457616062942</v>
+        <v>36.91</v>
       </c>
       <c r="B24">
-        <v>12.09747749747454</v>
+        <v>33.72434601725233</v>
       </c>
       <c r="C24">
-        <v>19.1916748237843</v>
+        <v>40.09565398274766</v>
       </c>
       <c r="D24">
-        <v>10.21975688974867</v>
+        <v>32.037962665522</v>
       </c>
       <c r="E24">
-        <v>21.06939543151017</v>
+        <v>41.78203733447799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>15.37408688506495</v>
+        <v>36.91</v>
       </c>
       <c r="B25">
-        <v>11.65767961093681</v>
+        <v>33.65582949093811</v>
       </c>
       <c r="C25">
-        <v>19.09049415919309</v>
+        <v>40.16417050906188</v>
       </c>
       <c r="D25">
-        <v>9.690332438494204</v>
+        <v>31.93317568111019</v>
       </c>
       <c r="E25">
-        <v>21.05784133163569</v>
+        <v>41.8868243188898</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>15.2289445556921</v>
+        <v>36.91</v>
       </c>
       <c r="B26">
-        <v>11.31700614362087</v>
+        <v>33.58872613199392</v>
       </c>
       <c r="C26">
-        <v>19.14088296776333</v>
+        <v>40.23127386800608</v>
       </c>
       <c r="D26">
-        <v>9.246151039193848</v>
+        <v>31.83054994968564</v>
       </c>
       <c r="E26">
-        <v>21.21173807219035</v>
+        <v>41.98945005031435</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>14.95585935554989</v>
+        <v>36.91</v>
       </c>
       <c r="B27">
-        <v>10.87058665983948</v>
+        <v>33.52295194741023</v>
       </c>
       <c r="C27">
-        <v>19.0411320512603</v>
+        <v>40.29704805258976</v>
       </c>
       <c r="D27">
-        <v>8.707973928314154</v>
+        <v>31.72995701502545</v>
       </c>
       <c r="E27">
-        <v>21.20374478278562</v>
+        <v>42.09004298497454</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>15.15263306289467</v>
+        <v>36.91</v>
       </c>
       <c r="B28">
-        <v>10.89148736962262</v>
+        <v>33.45843094885759</v>
       </c>
       <c r="C28">
-        <v>19.41377875616671</v>
+        <v>40.3615690511424</v>
       </c>
       <c r="D28">
-        <v>8.635773097028142</v>
+        <v>31.63128066300835</v>
       </c>
       <c r="E28">
-        <v>21.66949302876119</v>
+        <v>42.18871933699165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>15.30590412669412</v>
+        <v>36.91</v>
       </c>
       <c r="B29">
-        <v>10.86638486684062</v>
+        <v>33.39509412372733</v>
       </c>
       <c r="C29">
-        <v>19.74542338654763</v>
+        <v>40.42490587627266</v>
       </c>
       <c r="D29">
-        <v>8.516245331897892</v>
+        <v>31.53441534795748</v>
       </c>
       <c r="E29">
-        <v>22.09556292149036</v>
+        <v>42.28558465204252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>15.32501350628851</v>
+        <v>36.91</v>
       </c>
       <c r="B30">
-        <v>10.70465646682451</v>
+        <v>33.33287857023163</v>
       </c>
       <c r="C30">
-        <v>19.94537054575251</v>
+        <v>40.48712142976837</v>
       </c>
       <c r="D30">
-        <v>8.258787193953371</v>
+        <v>31.43926486988991</v>
       </c>
       <c r="E30">
-        <v>22.39123981862365</v>
+        <v>42.38073513011008</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>15.21759881859091</v>
+        <v>36.91</v>
       </c>
       <c r="B31">
-        <v>10.41397449775941</v>
+        <v>33.27172676568126</v>
       </c>
       <c r="C31">
-        <v>20.02122313942241</v>
+        <v>40.54827323431874</v>
       </c>
       <c r="D31">
-        <v>7.871089386417176</v>
+        <v>31.34574125544415</v>
       </c>
       <c r="E31">
-        <v>22.56410825076464</v>
+        <v>42.47425874455584</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>14.97551729136074</v>
+        <v>36.91</v>
       </c>
       <c r="B32">
-        <v>9.986229381734937</v>
+        <v>33.21158594370342</v>
       </c>
       <c r="C32">
-        <v>19.96480520098653</v>
+        <v>40.60841405629657</v>
       </c>
       <c r="D32">
-        <v>7.345059903395904</v>
+        <v>31.25376380541691</v>
       </c>
       <c r="E32">
-        <v>22.60597467932557</v>
+        <v>42.56623619458308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>15.20086898491151</v>
+        <v>36.91</v>
       </c>
       <c r="B33">
-        <v>10.02355297018562</v>
+        <v>33.15240756120836</v>
       </c>
       <c r="C33">
-        <v>20.37818499963739</v>
+        <v>40.66759243879164</v>
       </c>
       <c r="D33">
-        <v>7.28284742552695</v>
+        <v>31.16325827955899</v>
       </c>
       <c r="E33">
-        <v>23.11889054429606</v>
+        <v>42.656741720441</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>15.31788549463428</v>
+        <v>36.91</v>
       </c>
       <c r="B34">
-        <v>9.950207348067497</v>
+        <v>33.09414683978587</v>
       </c>
       <c r="C34">
-        <v>20.68556364120107</v>
+        <v>40.72585316021412</v>
       </c>
       <c r="D34">
-        <v>7.108730177967102</v>
+        <v>31.07415619520169</v>
       </c>
       <c r="E34">
-        <v>23.52704081130147</v>
+        <v>42.74584380479831</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>15.29104556642371</v>
+        <v>36.91</v>
       </c>
       <c r="B35">
-        <v>9.730700540495135</v>
+        <v>33.03676236920995</v>
       </c>
       <c r="C35">
-        <v>20.85139059235229</v>
+        <v>40.78323763079005</v>
       </c>
       <c r="D35">
-        <v>6.787231685313703</v>
+        <v>30.98639422086949</v>
       </c>
       <c r="E35">
-        <v>23.79485944753373</v>
+        <v>42.8336057791305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14.98161910316189</v>
+        <v>36.91</v>
       </c>
       <c r="B36">
-        <v>9.226330601366261</v>
+        <v>32.98021576307043</v>
       </c>
       <c r="C36">
-        <v>20.73690760495753</v>
+        <v>40.83978423692957</v>
       </c>
       <c r="D36">
-        <v>6.17966490371197</v>
+        <v>30.89991364961418</v>
       </c>
       <c r="E36">
-        <v>23.78357330261182</v>
+        <v>42.92008635038581</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>14.71112982759742</v>
+        <v>36.91</v>
       </c>
       <c r="B37">
-        <v>8.758648350467272</v>
+        <v>32.92447135839269</v>
       </c>
       <c r="C37">
-        <v>20.66361130472757</v>
+        <v>40.8955286416073</v>
       </c>
       <c r="D37">
-        <v>5.607594997253644</v>
+        <v>30.81465993962277</v>
       </c>
       <c r="E37">
-        <v>23.8146646579412</v>
+        <v>43.00534006037722</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>14.56598749822457</v>
+        <v>36.91</v>
       </c>
       <c r="B38">
-        <v>8.39389164682488</v>
+        <v>32.86949595256679</v>
       </c>
       <c r="C38">
-        <v>20.73808334962426</v>
+        <v>40.95050404743321</v>
       </c>
       <c r="D38">
-        <v>5.126581466418301</v>
+        <v>30.73058231188529</v>
       </c>
       <c r="E38">
-        <v>24.00539353003084</v>
+        <v>43.08941768811471</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>14.29290229808236</v>
+        <v>36.91</v>
       </c>
       <c r="B39">
-        <v>7.919830817753606</v>
+        <v>32.81525857207367</v>
       </c>
       <c r="C39">
-        <v>20.66597377841112</v>
+        <v>41.00474142792633</v>
       </c>
       <c r="D39">
-        <v>4.546130565931556</v>
+        <v>30.64763339649214</v>
       </c>
       <c r="E39">
-        <v>24.03967403023317</v>
+        <v>43.17236660350785</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>14.48967600542714</v>
+        <v>36.91</v>
       </c>
       <c r="B40">
-        <v>7.913422146231312</v>
+        <v>32.76173026843382</v>
       </c>
       <c r="C40">
-        <v>21.06592986462297</v>
+        <v>41.05826973156618</v>
       </c>
       <c r="D40">
-        <v>4.432163640141214</v>
+        <v>30.56576892056444</v>
       </c>
       <c r="E40">
-        <v>24.54718837071307</v>
+        <v>43.25423107943556</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>14.6429470692266</v>
+        <v>36.91</v>
       </c>
       <c r="B41">
-        <v>7.86132988478306</v>
+        <v>32.70888393756133</v>
       </c>
       <c r="C41">
-        <v>21.42456425367013</v>
+        <v>41.11111606243866</v>
       </c>
       <c r="D41">
-        <v>4.271358601150496</v>
+        <v>30.4849474319799</v>
       </c>
       <c r="E41">
-        <v>25.0145355373027</v>
+        <v>43.33505256802009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>14.66205644882099</v>
+        <v>36.91</v>
       </c>
       <c r="B42">
-        <v>7.672919821419479</v>
+        <v>32.65669415932358</v>
       </c>
       <c r="C42">
-        <v>21.65119307622249</v>
+        <v>41.16330584067641</v>
       </c>
       <c r="D42">
-        <v>3.973094380474192</v>
+        <v>30.40513005400053</v>
       </c>
       <c r="E42">
-        <v>25.35101851716778</v>
+        <v>43.41486994599946</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>14.55464176112338</v>
+        <v>36.91</v>
       </c>
       <c r="B43">
-        <v>7.355853491082786</v>
+        <v>32.60513705461089</v>
       </c>
       <c r="C43">
-        <v>21.75343003116398</v>
+        <v>41.2148629453891</v>
       </c>
       <c r="D43">
-        <v>3.545045174494319</v>
+        <v>30.32628026667958</v>
       </c>
       <c r="E43">
-        <v>25.56423834775245</v>
+        <v>43.49371973332041</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>14.31256023389321</v>
+        <v>36.91</v>
       </c>
       <c r="B44">
-        <v>6.902011187206039</v>
+        <v>32.55419015763587</v>
       </c>
       <c r="C44">
-        <v>21.72310928058038</v>
+        <v>41.26580984236412</v>
       </c>
       <c r="D44">
-        <v>2.979103486874005</v>
+        <v>30.24836371156018</v>
       </c>
       <c r="E44">
-        <v>25.64601698091241</v>
+        <v>43.57163628843981</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>14.53791192744398</v>
+        <v>36.91</v>
       </c>
       <c r="B45">
-        <v>6.913515236440734</v>
+        <v>32.50383230152458</v>
       </c>
       <c r="C45">
-        <v>22.16230861844722</v>
+        <v>41.31616769847542</v>
       </c>
       <c r="D45">
-        <v>2.877403431352057</v>
+        <v>30.17134801670217</v>
       </c>
       <c r="E45">
-        <v>26.1984204235359</v>
+        <v>43.64865198329782</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>14.65492843716676</v>
+        <v>36.91</v>
       </c>
       <c r="B46">
-        <v>6.814618749533281</v>
+        <v>32.45404351554684</v>
       </c>
       <c r="C46">
-        <v>22.49523812480024</v>
+        <v>41.36595648445316</v>
       </c>
       <c r="D46">
-        <v>2.664209508216024</v>
+        <v>30.09520263950942</v>
       </c>
       <c r="E46">
-        <v>26.64564736611749</v>
+        <v>43.72479736049057</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>14.62808850895619</v>
+        <v>36.91</v>
       </c>
       <c r="B47">
-        <v>6.569821280956095</v>
+        <v>32.40480493257038</v>
       </c>
       <c r="C47">
-        <v>22.68635573695628</v>
+        <v>41.41519506742961</v>
       </c>
       <c r="D47">
-        <v>2.304032287334</v>
+        <v>30.01989872519316</v>
       </c>
       <c r="E47">
-        <v>26.95214473057838</v>
+        <v>43.80010127480683</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>14.31866204569437</v>
+        <v>36.91</v>
       </c>
       <c r="B48">
-        <v>6.040412875899229</v>
+        <v>32.35609870552246</v>
       </c>
       <c r="C48">
-        <v>22.59691121548951</v>
+        <v>41.46390129447753</v>
       </c>
       <c r="D48">
-        <v>1.65817247658978</v>
+        <v>29.94540897901101</v>
       </c>
       <c r="E48">
-        <v>26.97915161479896</v>
+        <v>43.87459102098898</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>14.0481727701299</v>
+        <v>36.91</v>
       </c>
       <c r="B49">
-        <v>5.547936770352589</v>
+        <v>32.30790793181012</v>
       </c>
       <c r="C49">
-        <v>22.5484087699072</v>
+        <v>41.51209206818987</v>
       </c>
       <c r="D49">
-        <v>1.048183641659257</v>
+        <v>29.8717075506778</v>
       </c>
       <c r="E49">
-        <v>27.04816189860053</v>
+        <v>43.9482924493222</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>13.90303044075704</v>
+        <v>36.91</v>
       </c>
       <c r="B50">
-        <v>5.16089725095604</v>
+        <v>32.26021658479148</v>
       </c>
       <c r="C50">
-        <v>22.64516363055805</v>
+        <v>41.55978341520851</v>
       </c>
       <c r="D50">
-        <v>0.5330914849406661</v>
+        <v>29.7987699295599</v>
       </c>
       <c r="E50">
-        <v>27.27296939657342</v>
+        <v>44.02123007044009</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>13.62994524061484</v>
+        <v>36.91</v>
       </c>
       <c r="B51">
-        <v>4.662323232459542</v>
+        <v>32.21300945151044</v>
       </c>
       <c r="C51">
-        <v>22.59756724877013</v>
+        <v>41.60699054848955</v>
       </c>
       <c r="D51">
-        <v>-0.08484910360184728</v>
+        <v>29.72657284944874</v>
       </c>
       <c r="E51">
-        <v>27.34473958483152</v>
+        <v>44.09342715055126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>13.82671894795961</v>
+        <v>36.91</v>
       </c>
       <c r="B52">
-        <v>4.631639766300857</v>
+        <v>32.16627207600897</v>
       </c>
       <c r="C52">
-        <v>23.02179812961837</v>
+        <v>41.65372792399102</v>
       </c>
       <c r="D52">
-        <v>-0.2359411240809948</v>
+        <v>29.65509420186433</v>
       </c>
       <c r="E52">
-        <v>27.88937902000022</v>
+        <v>44.16490579813566</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>13.97999001175907</v>
+        <v>36.91</v>
       </c>
       <c r="B53">
-        <v>4.555503660156703</v>
+        <v>32.11999070761817</v>
       </c>
       <c r="C53">
-        <v>23.40447636336144</v>
+        <v>41.70000929238182</v>
       </c>
       <c r="D53">
-        <v>-0.4335180503065566</v>
+        <v>29.58431295697338</v>
       </c>
       <c r="E53">
-        <v>28.3934980738247</v>
+        <v>44.23568704302662</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>13.99909939135346</v>
+        <v>36.91</v>
       </c>
       <c r="B54">
-        <v>4.343273676237413</v>
+        <v>32.07415225370399</v>
       </c>
       <c r="C54">
-        <v>23.65492510646951</v>
+        <v>41.74584774629601</v>
       </c>
       <c r="D54">
-        <v>-0.7682116957980512</v>
+        <v>29.51420909132001</v>
       </c>
       <c r="E54">
-        <v>28.76641047850497</v>
+        <v>44.30579090867999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>13.89168470365586</v>
+        <v>36.91</v>
       </c>
       <c r="B55">
-        <v>4.002604708009395</v>
+        <v>32.02874423640717</v>
       </c>
       <c r="C55">
-        <v>23.78076469930232</v>
+        <v>41.79125576359282</v>
       </c>
       <c r="D55">
-        <v>-1.232358021434186</v>
+        <v>29.44476352166529</v>
       </c>
       <c r="E55">
-        <v>29.0157274287459</v>
+        <v>44.3752364783347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>13.64960317642568</v>
+        <v>36.91</v>
       </c>
       <c r="B56">
-        <v>3.525370760771381</v>
+        <v>31.98375475297258</v>
       </c>
       <c r="C56">
-        <v>23.77383559207998</v>
+        <v>41.83624524702741</v>
       </c>
       <c r="D56">
-        <v>-1.834074140423409</v>
+        <v>29.37595804431614</v>
       </c>
       <c r="E56">
-        <v>29.13328049327478</v>
+        <v>44.44404195568386</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>13.87495486997645</v>
+        <v>36.91</v>
       </c>
       <c r="B57">
-        <v>3.513688198655945</v>
+        <v>31.93917243931031</v>
       </c>
       <c r="C57">
-        <v>24.23622154129696</v>
+        <v>41.88082756068969</v>
       </c>
       <c r="D57">
-        <v>-1.971235057912677</v>
+        <v>29.30777527939681</v>
       </c>
       <c r="E57">
-        <v>29.72114479786558</v>
+        <v>44.51222472060319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>13.99197137969923</v>
+        <v>36.91</v>
       </c>
       <c r="B58">
-        <v>3.391804470624622</v>
+        <v>31.89498643647255</v>
       </c>
       <c r="C58">
-        <v>24.59213828877384</v>
+        <v>41.92501356352744</v>
       </c>
       <c r="D58">
-        <v>-2.219584932567196</v>
+        <v>29.24019861957979</v>
       </c>
       <c r="E58">
-        <v>30.20352769196566</v>
+        <v>44.57980138042021</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>13.96513145148866</v>
+        <v>36.91</v>
       </c>
       <c r="B59">
-        <v>3.124213747709856</v>
+        <v>31.85118635976613</v>
       </c>
       <c r="C59">
-        <v>24.80604915526747</v>
+        <v>41.96881364023386</v>
       </c>
       <c r="D59">
-        <v>-2.614621427779811</v>
+        <v>29.17321218284737</v>
       </c>
       <c r="E59">
-        <v>30.54488433075714</v>
+        <v>44.64678781715262</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>13.65570498822684</v>
+        <v>36.91</v>
       </c>
       <c r="B60">
-        <v>2.572200949807398</v>
+        <v>31.80776227025159</v>
       </c>
       <c r="C60">
-        <v>24.73920902664629</v>
+        <v>42.01223772974841</v>
       </c>
       <c r="D60">
-        <v>-3.295051674127944</v>
+        <v>29.10680076890338</v>
       </c>
       <c r="E60">
-        <v>30.60646165058163</v>
+        <v>44.71319923109661</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>13.38521571266237</v>
+        <v>36.91</v>
       </c>
       <c r="B61">
-        <v>2.057304427489072</v>
+        <v>31.76470464840742</v>
       </c>
       <c r="C61">
-        <v>24.71312699783567</v>
+        <v>42.05529535159258</v>
       </c>
       <c r="D61">
-        <v>-3.939329577537901</v>
+        <v>29.04094981889603</v>
       </c>
       <c r="E61">
-        <v>30.70976100286264</v>
+        <v>44.77905018110396</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>13.24007338328952</v>
+        <v>36.91</v>
       </c>
       <c r="B62">
-        <v>1.649663520973618</v>
+        <v>31.72200436976165</v>
       </c>
       <c r="C62">
-        <v>24.83048324560542</v>
+        <v>42.09799563023834</v>
       </c>
       <c r="D62">
-        <v>-4.485928836951546</v>
+        <v>28.97564537814965</v>
       </c>
       <c r="E62">
-        <v>30.96607560353058</v>
+        <v>44.84435462185034</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>12.96698818314731</v>
+        <v>36.91</v>
       </c>
       <c r="B63">
-        <v>1.128912821408918</v>
+        <v>31.67965268231408</v>
       </c>
       <c r="C63">
-        <v>24.8050635448857</v>
+        <v>42.14034731768591</v>
       </c>
       <c r="D63">
-        <v>-5.137785732382449</v>
+        <v>28.91087406163501</v>
       </c>
       <c r="E63">
-        <v>31.07176209867707</v>
+        <v>44.90912593836498</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>13.16376189049209</v>
+        <v>36.91</v>
       </c>
       <c r="B64">
-        <v>1.076230143397643</v>
+        <v>31.637641185591</v>
       </c>
       <c r="C64">
-        <v>25.25129363758653</v>
+        <v>42.18235881440899</v>
       </c>
       <c r="D64">
-        <v>-5.322522644006511</v>
+        <v>28.84662302193622</v>
       </c>
       <c r="E64">
-        <v>31.65004642499068</v>
+        <v>44.97337697806378</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>13.31703295429155</v>
+        <v>36.91</v>
       </c>
       <c r="B65">
-        <v>0.9782677230062546</v>
+        <v>31.59596181119026</v>
       </c>
       <c r="C65">
-        <v>25.65579818557684</v>
+        <v>42.22403818880973</v>
       </c>
       <c r="D65">
-        <v>-5.553480037308056</v>
+        <v>28.78287991949703</v>
       </c>
       <c r="E65">
-        <v>32.18754594589115</v>
+        <v>45.03712008050296</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>13.33614233388593</v>
+        <v>36.91</v>
       </c>
       <c r="B66">
-        <v>0.7443799626638707</v>
+        <v>31.55460680468929</v>
       </c>
       <c r="C66">
-        <v>25.927904705108</v>
+        <v>42.26539319531071</v>
       </c>
       <c r="D66">
-        <v>-5.921296393516572</v>
+        <v>28.71963289495153</v>
       </c>
       <c r="E66">
-        <v>32.59358106128844</v>
+        <v>45.10036710504846</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>13.22872764618833</v>
+        <v>36.91</v>
       </c>
       <c r="B67">
-        <v>0.3822175934731167</v>
+        <v>31.51356870880095</v>
       </c>
       <c r="C67">
-        <v>26.07523769890354</v>
+        <v>42.30643129119905</v>
       </c>
       <c r="D67">
-        <v>-6.418314039296851</v>
+        <v>28.65687054336323</v>
       </c>
       <c r="E67">
-        <v>32.87576933167351</v>
+        <v>45.16312945663677</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>12.98664611895816</v>
+        <v>36.91</v>
       </c>
       <c r="B68">
-        <v>-0.1163493573515346</v>
+        <v>31.47284034767377</v>
       </c>
       <c r="C68">
-        <v>26.08964159526785</v>
+        <v>42.34715965232623</v>
       </c>
       <c r="D68">
-        <v>-7.052656171812188</v>
+        <v>28.59458189021435</v>
       </c>
       <c r="E68">
-        <v>33.0259484097285</v>
+        <v>45.22541810978565</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>13.21199781250893</v>
+        <v>36.91</v>
       </c>
       <c r="B69">
-        <v>-0.1492083314816384</v>
+        <v>31.43241481224287</v>
       </c>
       <c r="C69">
-        <v>26.57320395649949</v>
+        <v>42.38758518775713</v>
       </c>
       <c r="D69">
-        <v>-7.222203616684688</v>
+        <v>28.53275636900199</v>
       </c>
       <c r="E69">
-        <v>33.64619924170254</v>
+        <v>45.28724363099801</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>13.32901432223171</v>
+        <v>36.91</v>
       </c>
       <c r="B70">
-        <v>-0.2921155244594278</v>
+        <v>31.39228544654689</v>
       </c>
       <c r="C70">
-        <v>26.95014416892284</v>
+        <v>42.42771455345311</v>
       </c>
       <c r="D70">
-        <v>-7.50270610636707</v>
+        <v>28.47138380031167</v>
       </c>
       <c r="E70">
-        <v>34.16073475083048</v>
+        <v>45.34861619968832</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>13.30217439402114</v>
+        <v>36.91</v>
       </c>
       <c r="B71">
-        <v>-0.5805802585205697</v>
+        <v>31.35244583493419</v>
       </c>
       <c r="C71">
-        <v>27.18492904656284</v>
+        <v>42.4675541650658</v>
       </c>
       <c r="D71">
-        <v>-7.929666646744733</v>
+        <v>28.41045437225096</v>
       </c>
       <c r="E71">
-        <v>34.534015434787</v>
+        <v>45.40954562774903</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>12.99274793075932</v>
+        <v>36.91</v>
       </c>
       <c r="B72">
-        <v>-1.153320965043722</v>
+        <v>31.31288979008879</v>
       </c>
       <c r="C72">
-        <v>27.13881682656235</v>
+        <v>42.5071102099112</v>
       </c>
       <c r="D72">
-        <v>-8.641797493727015</v>
+        <v>28.34995862213661</v>
       </c>
       <c r="E72">
-        <v>34.62729335524564</v>
+        <v>45.47004137786338</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>12.72225865519484</v>
+        <v>36.91</v>
       </c>
       <c r="B73">
-        <v>-1.688802511238508</v>
+        <v>31.27361134181253</v>
       </c>
       <c r="C73">
-        <v>27.13331982162819</v>
+        <v>42.54638865818746</v>
       </c>
       <c r="D73">
-        <v>-9.317557474412272</v>
+        <v>28.28988741933849</v>
       </c>
       <c r="E73">
-        <v>34.76207478480195</v>
+        <v>45.53011258066151</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>12.57711632582199</v>
+        <v>36.91</v>
       </c>
       <c r="B74">
-        <v>-2.115632004976431</v>
+        <v>31.23460472650615</v>
       </c>
       <c r="C74">
-        <v>27.26986465662041</v>
+        <v>42.58539527349384</v>
       </c>
       <c r="D74">
-        <v>-9.893503145536057</v>
+        <v>28.23023194919217</v>
       </c>
       <c r="E74">
-        <v>35.04773579718004</v>
+        <v>45.58976805080783</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>12.30403112567979</v>
+        <v>36.91</v>
       </c>
       <c r="B75">
-        <v>-2.656762755965843</v>
+        <v>31.19586437729657</v>
       </c>
       <c r="C75">
-        <v>27.26482500732541</v>
+        <v>42.62413562270342</v>
       </c>
       <c r="D75">
-        <v>-10.57652863992891</v>
+        <v>28.17098369789998</v>
       </c>
       <c r="E75">
-        <v>35.18459089128848</v>
+        <v>45.64901630210002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>12.50080483302456</v>
+        <v>36.91</v>
       </c>
       <c r="B76">
-        <v>-2.72968776141504</v>
+        <v>31.15738491476265</v>
       </c>
       <c r="C76">
-        <v>27.73129742746416</v>
+        <v>42.66261508523734</v>
       </c>
       <c r="D76">
-        <v>-10.79222351985347</v>
+        <v>28.11213443834725</v>
       </c>
       <c r="E76">
-        <v>35.79383318590259</v>
+        <v>45.70786556165275</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>12.65407589682402</v>
+        <v>36.91</v>
       </c>
       <c r="B77">
-        <v>-2.847757771120314</v>
+        <v>31.11916113821561</v>
       </c>
       <c r="C77">
-        <v>28.15590956476835</v>
+        <v>42.70083886178438</v>
       </c>
       <c r="D77">
-        <v>-11.0539328172771</v>
+        <v>28.05367621676685</v>
       </c>
       <c r="E77">
-        <v>36.36208461092514</v>
+        <v>45.76632378323314</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>12.67318527641841</v>
+        <v>36.91</v>
       </c>
       <c r="B78">
-        <v>-3.101621252440648</v>
+        <v>31.0811880174941</v>
       </c>
       <c r="C78">
-        <v>28.44799180527746</v>
+        <v>42.73881198250589</v>
       </c>
       <c r="D78">
-        <v>-11.45229940239145</v>
+        <v>27.99560134019088</v>
       </c>
       <c r="E78">
-        <v>36.79866995522826</v>
+        <v>45.82439865980911</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>12.56577058872081</v>
+        <v>36.91</v>
       </c>
       <c r="B79">
-        <v>-3.483630234615074</v>
+        <v>31.04346068523731</v>
       </c>
       <c r="C79">
-        <v>28.61517141205669</v>
+        <v>42.77653931476269</v>
       </c>
       <c r="D79">
-        <v>-11.97966982343954</v>
+        <v>27.93790236463333</v>
       </c>
       <c r="E79">
-        <v>37.11121100088116</v>
+        <v>45.88209763536666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>12.32368906149063</v>
+        <v>36.91</v>
       </c>
       <c r="B80">
-        <v>-4.001917347459177</v>
+        <v>31.00597442960243</v>
       </c>
       <c r="C80">
-        <v>28.64929547044044</v>
+        <v>42.81402557039756</v>
       </c>
       <c r="D80">
-        <v>-12.64417134116151</v>
+        <v>27.88057208395252</v>
       </c>
       <c r="E80">
-        <v>37.29154946414278</v>
+        <v>45.93942791604748</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>12.5490407550414</v>
+        <v>36.91</v>
       </c>
       <c r="B81">
-        <v>-4.054372592048701</v>
+        <v>30.96872468739578</v>
       </c>
       <c r="C81">
-        <v>29.1524541021315</v>
+        <v>42.85127531260421</v>
       </c>
       <c r="D81">
-        <v>-12.84368869545037</v>
+        <v>27.8236035193459</v>
       </c>
       <c r="E81">
-        <v>37.94177020553317</v>
+        <v>45.99639648065409</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>12.66605726476418</v>
+        <v>36.91</v>
       </c>
       <c r="B82">
-        <v>-4.216754630980693</v>
+        <v>30.93170703758905</v>
       </c>
       <c r="C82">
-        <v>29.54886916050905</v>
+        <v>42.88829296241095</v>
       </c>
       <c r="D82">
-        <v>-13.1539753917936</v>
+        <v>27.76698990943416</v>
       </c>
       <c r="E82">
-        <v>38.48608992132196</v>
+        <v>46.05301009056583</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>12.63921733655361</v>
+        <v>36.91</v>
       </c>
       <c r="B83">
-        <v>-4.524575166099101</v>
+        <v>30.8949171951947</v>
       </c>
       <c r="C83">
-        <v>29.80300983920632</v>
+        <v>42.92508280480529</v>
       </c>
       <c r="D83">
-        <v>-13.61053807537339</v>
+        <v>27.71072470089441</v>
       </c>
       <c r="E83">
-        <v>38.88897274848061</v>
+        <v>46.10927529910559</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>12.32979087329179</v>
+        <v>36.91</v>
       </c>
       <c r="B84">
-        <v>-5.116554925505682</v>
+        <v>30.85835100547658</v>
       </c>
       <c r="C84">
-        <v>29.77613667208926</v>
+        <v>42.96164899452342</v>
       </c>
       <c r="D84">
-        <v>-14.35209251463396</v>
+        <v>27.65480153960598</v>
       </c>
       <c r="E84">
-        <v>39.01167426121754</v>
+        <v>46.16519846039401</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>12.05930159772732</v>
+        <v>36.91</v>
       </c>
       <c r="B85">
-        <v>-5.671160994496738</v>
+        <v>30.82200443847334</v>
       </c>
       <c r="C85">
-        <v>29.78976418995137</v>
+        <v>42.99799556152666</v>
       </c>
       <c r="D85">
-        <v>-15.05710092894449</v>
+        <v>27.59921426227489</v>
       </c>
       <c r="E85">
-        <v>39.17570412439913</v>
+        <v>46.22078573772511</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>11.91415926835447</v>
+        <v>36.91</v>
       </c>
       <c r="B86">
-        <v>-6.115999162006515</v>
+        <v>30.78587358381456</v>
       </c>
       <c r="C86">
-        <v>29.94431769871544</v>
+        <v>43.03412641618544</v>
       </c>
       <c r="D86">
-        <v>-15.6605884898768</v>
+        <v>27.54395688850564</v>
       </c>
       <c r="E86">
-        <v>39.48890702658573</v>
+        <v>46.27604311149435</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>11.64107406821226</v>
+        <v>36.91</v>
       </c>
       <c r="B87">
-        <v>-6.676081346490662</v>
+        <v>30.74995464581044</v>
       </c>
       <c r="C87">
-        <v>29.95822948291518</v>
+        <v>43.07004535418955</v>
       </c>
       <c r="D87">
-        <v>-16.37259770065198</v>
+        <v>27.48902361329164</v>
       </c>
       <c r="E87">
-        <v>39.6547458370765</v>
+        <v>46.33097638670835</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>11.83784777555703</v>
+        <v>36.91</v>
       </c>
       <c r="B88">
-        <v>-6.76784721448113</v>
+        <v>30.71424393879775</v>
       </c>
       <c r="C88">
-        <v>30.4435427655952</v>
+        <v>43.10575606120224</v>
       </c>
       <c r="D88">
-        <v>-16.61710719327835</v>
+        <v>27.43440879989739</v>
       </c>
       <c r="E88">
-        <v>40.29280274439242</v>
+        <v>46.3855912001026</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>11.99111883935649</v>
+        <v>36.91</v>
       </c>
       <c r="B89">
-        <v>-6.904649576022095</v>
+        <v>30.67873788272581</v>
       </c>
       <c r="C89">
-        <v>30.88688725473508</v>
+        <v>43.14126211727418</v>
       </c>
       <c r="D89">
-        <v>-16.90746515060049</v>
+        <v>27.38010697310786</v>
       </c>
       <c r="E89">
-        <v>40.88970282931348</v>
+        <v>46.43989302689214</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>12.01022821895088</v>
+        <v>36.91</v>
       </c>
       <c r="B90">
-        <v>-7.177138890115797</v>
+        <v>30.64343299896759</v>
       </c>
       <c r="C90">
-        <v>31.19759532801756</v>
+        <v>43.17656700103241</v>
       </c>
       <c r="D90">
-        <v>-17.33431748876556</v>
+        <v>27.32611281282208</v>
       </c>
       <c r="E90">
-        <v>41.35477392666731</v>
+        <v>46.49388718717791</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>11.90281353125328</v>
+        <v>36.91</v>
       </c>
       <c r="B91">
-        <v>-7.577669112398173</v>
+        <v>30.608325906342</v>
       </c>
       <c r="C91">
-        <v>31.38329617490473</v>
+        <v>43.21167409365799</v>
       </c>
       <c r="D91">
-        <v>-17.89001370218642</v>
+        <v>27.27242114796986</v>
       </c>
       <c r="E91">
-        <v>41.69564076469298</v>
+        <v>46.54757885203014</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>11.6607320040231</v>
+        <v>36.91</v>
       </c>
       <c r="B92">
-        <v>-8.114374736978423</v>
+        <v>30.57341331733461</v>
       </c>
       <c r="C92">
-        <v>31.43583874502463</v>
+        <v>43.24658668266538</v>
       </c>
       <c r="D92">
-        <v>-18.58268390279422</v>
+        <v>27.21902695073172</v>
       </c>
       <c r="E92">
-        <v>41.90414791084043</v>
+        <v>46.60097304926828</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>11.88608369757387</v>
+        <v>36.91</v>
       </c>
       <c r="B93">
-        <v>-8.185147570067358</v>
+        <v>30.53869203450466</v>
       </c>
       <c r="C93">
-        <v>31.95731496521511</v>
+        <v>43.28130796549534</v>
       </c>
       <c r="D93">
-        <v>-18.81021559119785</v>
+        <v>27.16592533104401</v>
       </c>
       <c r="E93">
-        <v>42.58238298634559</v>
+        <v>46.65407466895598</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>12.00310020729665</v>
+        <v>36.91</v>
       </c>
       <c r="B94">
-        <v>-8.365748023000036</v>
+        <v>30.50415894706742</v>
       </c>
       <c r="C94">
-        <v>32.37194843759334</v>
+        <v>43.31584105293258</v>
       </c>
       <c r="D94">
-        <v>-19.14836494734877</v>
+        <v>27.11311153137206</v>
       </c>
       <c r="E94">
-        <v>43.15456536194207</v>
+        <v>46.70688846862794</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>11.97626027908608</v>
+        <v>36.91</v>
       </c>
       <c r="B95">
-        <v>-8.691689492553536</v>
+        <v>30.46981102764147</v>
       </c>
       <c r="C95">
-        <v>32.6442100507257</v>
+        <v>43.35018897235852</v>
       </c>
       <c r="D95">
-        <v>-19.63264120860571</v>
+        <v>27.0605809217355</v>
       </c>
       <c r="E95">
-        <v>43.58516176677787</v>
+        <v>46.7594190782645</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>11.66683381582426</v>
+        <v>36.91</v>
       </c>
       <c r="B96">
-        <v>-9.301694350393376</v>
+        <v>30.4356453291513</v>
       </c>
       <c r="C96">
-        <v>32.6353619820419</v>
+        <v>43.38435467084869</v>
       </c>
       <c r="D96">
-        <v>-20.40176265702674</v>
+        <v>27.00832899497129</v>
       </c>
       <c r="E96">
-        <v>43.73543028867526</v>
+        <v>46.81167100502871</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>11.39634454025979</v>
+        <v>36.91</v>
       </c>
       <c r="B97">
-        <v>-9.874231276300577</v>
+        <v>30.40165898187622</v>
       </c>
       <c r="C97">
-        <v>32.66692035682016</v>
+        <v>43.41834101812377</v>
       </c>
       <c r="D97">
-        <v>-21.13419395053501</v>
+        <v>26.95635136222039</v>
       </c>
       <c r="E97">
-        <v>43.92688303105459</v>
+        <v>46.8636486377796</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>11.25120221088694</v>
+        <v>36.91</v>
       </c>
       <c r="B98">
-        <v>-10.33608204212293</v>
+        <v>30.36784919063735</v>
       </c>
       <c r="C98">
-        <v>32.83848646389681</v>
+        <v>43.45215080936265</v>
       </c>
       <c r="D98">
-        <v>-21.76370003531963</v>
+        <v>26.90464374862557</v>
       </c>
       <c r="E98">
-        <v>44.26610445709351</v>
+        <v>46.91535625137442</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>10.97811701074473</v>
+        <v>36.91</v>
       </c>
       <c r="B99">
-        <v>-10.91394723935854</v>
+        <v>30.33421323211462</v>
       </c>
       <c r="C99">
-        <v>32.87018126084801</v>
+        <v>43.48578676788537</v>
       </c>
       <c r="D99">
-        <v>-22.50290601715464</v>
+        <v>26.85320198922824</v>
       </c>
       <c r="E99">
-        <v>44.45914003864411</v>
+        <v>46.96679801077175</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>11.17489071808951</v>
+        <v>36.91</v>
       </c>
       <c r="B100">
-        <v>-11.02340493776519</v>
+        <v>30.30074845228687</v>
       </c>
       <c r="C100">
-        <v>33.3731863739442</v>
+        <v>43.51925154771313</v>
       </c>
       <c r="D100">
-        <v>-22.77447282949297</v>
+        <v>26.80202202505325</v>
       </c>
       <c r="E100">
-        <v>45.12425426567199</v>
+        <v>47.01797797494674</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>11.32816178188897</v>
+        <v>36.91</v>
       </c>
       <c r="B101">
-        <v>-11.17780943373202</v>
+        <v>30.26745226398783</v>
       </c>
       <c r="C101">
-        <v>33.83413299750995</v>
+        <v>43.55254773601217</v>
       </c>
       <c r="D101">
-        <v>-23.09175092834767</v>
+        <v>26.75109989937129</v>
       </c>
       <c r="E101">
-        <v>45.7480744921256</v>
+        <v>47.0689001006287</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>11.34727116148335</v>
+        <v>36.91</v>
       </c>
       <c r="B102">
-        <v>-11.4678126294513</v>
+        <v>30.23432214457195</v>
       </c>
       <c r="C102">
-        <v>34.16235495241801</v>
+        <v>43.58567785542805</v>
       </c>
       <c r="D102">
-        <v>-23.54538843703455</v>
+        <v>26.7004317541289</v>
       </c>
       <c r="E102">
-        <v>46.23993076000127</v>
+        <v>47.11956824587109</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>11.23985647378575</v>
+        <v>36.91</v>
       </c>
       <c r="B103">
-        <v>-11.88576988243674</v>
+        <v>30.20135563368392</v>
       </c>
       <c r="C103">
-        <v>34.36548283000825</v>
+        <v>43.61864436631607</v>
       </c>
       <c r="D103">
-        <v>-24.12773699395357</v>
+        <v>26.65001382653733</v>
       </c>
       <c r="E103">
-        <v>46.60744994152508</v>
+        <v>47.16998617346266</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>10.99777494655558</v>
+        <v>36.91</v>
       </c>
       <c r="B104">
-        <v>-12.43981704910263</v>
+        <v>30.16855033112637</v>
       </c>
       <c r="C104">
-        <v>34.43536694221378</v>
+        <v>43.65144966887362</v>
       </c>
       <c r="D104">
-        <v>-24.84692879450167</v>
+        <v>26.59984244581148</v>
       </c>
       <c r="E104">
-        <v>46.84247868761283</v>
+        <v>47.22015755418852</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>11.22312664010635</v>
+        <v>36.91</v>
       </c>
       <c r="B105">
-        <v>-12.52784726003521</v>
+        <v>30.13590389482047</v>
       </c>
       <c r="C105">
-        <v>34.9741005402479</v>
+        <v>43.68409610517952</v>
       </c>
       <c r="D105">
-        <v>-25.10085336474519</v>
+        <v>26.5499140300509</v>
       </c>
       <c r="E105">
-        <v>47.54710664495788</v>
+        <v>47.27008596994909</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>11.34014314982913</v>
+        <v>36.91</v>
       </c>
       <c r="B106">
-        <v>-12.72562221456879</v>
+        <v>30.10341403885469</v>
       </c>
       <c r="C106">
-        <v>35.40590851422704</v>
+        <v>43.71658596114531</v>
       </c>
       <c r="D106">
-        <v>-25.46526885446045</v>
+        <v>26.50022508325556</v>
       </c>
       <c r="E106">
-        <v>48.1455551541187</v>
+        <v>47.31977491674444</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>11.31330322161856</v>
+        <v>36.91</v>
       </c>
       <c r="B107">
-        <v>-13.06865656257306</v>
+        <v>30.07107853161681</v>
       </c>
       <c r="C107">
-        <v>35.69526300581018</v>
+        <v>43.74892146838318</v>
       </c>
       <c r="D107">
-        <v>-25.97568641744598</v>
+        <v>26.45077219246912</v>
       </c>
       <c r="E107">
-        <v>48.60229286068309</v>
+        <v>47.36922780753088</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>11.00387675835674</v>
+        <v>36.91</v>
       </c>
       <c r="B108">
-        <v>-13.69567389529091</v>
+        <v>30.03889519400523</v>
       </c>
       <c r="C108">
-        <v>35.70342741200437</v>
+        <v>43.78110480599477</v>
       </c>
       <c r="D108">
-        <v>-26.77082620094243</v>
+        <v>26.40155202504324</v>
       </c>
       <c r="E108">
-        <v>48.7785797176559</v>
+        <v>47.41844797495675</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>10.73338748279226</v>
+        <v>36.91</v>
       </c>
       <c r="B109">
-        <v>-14.28514407988359</v>
+        <v>30.00686189771518</v>
       </c>
       <c r="C109">
-        <v>35.75191904546812</v>
+        <v>43.81313810228481</v>
       </c>
       <c r="D109">
-        <v>-27.52915467881436</v>
+        <v>26.3525613260167</v>
       </c>
       <c r="E109">
-        <v>48.99592964439889</v>
+        <v>47.4674386739833</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>10.58824515341941</v>
+        <v>36.91</v>
       </c>
       <c r="B110">
-        <v>-14.76315521834976</v>
+        <v>29.97497656359631</v>
       </c>
       <c r="C110">
-        <v>35.93964552518859</v>
+        <v>43.84502343640369</v>
       </c>
       <c r="D110">
-        <v>-28.18337592076487</v>
+        <v>26.3037969156034</v>
       </c>
       <c r="E110">
-        <v>49.3598662276037</v>
+        <v>47.51620308439659</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>10.31515995327721</v>
+        <v>36.91</v>
       </c>
       <c r="B111">
-        <v>-15.35782584133693</v>
+        <v>29.94323716007783</v>
       </c>
       <c r="C111">
-        <v>35.98814574789134</v>
+        <v>43.87676283992216</v>
       </c>
       <c r="D111">
-        <v>-28.94828358336208</v>
+        <v>26.25525568678397</v>
       </c>
       <c r="E111">
-        <v>49.57860348991649</v>
+        <v>47.56474431321602</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>10.51193366062198</v>
+        <v>36.91</v>
       </c>
       <c r="B112">
-        <v>-15.48401215146695</v>
+        <v>29.91164170165799</v>
       </c>
       <c r="C112">
-        <v>36.50787947271091</v>
+        <v>43.908358298342</v>
       </c>
       <c r="D112">
-        <v>-29.24543459954417</v>
+        <v>26.20693460299551</v>
       </c>
       <c r="E112">
-        <v>50.26930192078812</v>
+        <v>47.61306539700449</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>10.66520472442144</v>
+        <v>36.91</v>
       </c>
       <c r="B113">
-        <v>-15.65506955662288</v>
+        <v>29.88018824745467</v>
       </c>
       <c r="C113">
-        <v>36.98547900546576</v>
+        <v>43.93981175254532</v>
       </c>
       <c r="D113">
-        <v>-29.5881811252074</v>
+        <v>26.15883069591496</v>
       </c>
       <c r="E113">
-        <v>50.91859057405029</v>
+        <v>47.66116930408504</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>10.68431410401583</v>
+        <v>36.91</v>
       </c>
       <c r="B114">
-        <v>-15.96165104193687</v>
+        <v>29.84887489981402</v>
       </c>
       <c r="C114">
-        <v>37.33027924996852</v>
+        <v>43.97112510018597</v>
       </c>
       <c r="D114">
-        <v>-30.06717293988127</v>
+        <v>26.11094106333121</v>
       </c>
       <c r="E114">
-        <v>51.43580114791292</v>
+        <v>47.70905893666878</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>10.57689941631823</v>
+        <v>36.91</v>
       </c>
       <c r="B115">
-        <v>-16.3961130203875</v>
+        <v>29.81769980297446</v>
       </c>
       <c r="C115">
-        <v>37.54991185302396</v>
+        <v>44.00230019702553</v>
       </c>
       <c r="D115">
-        <v>-30.6747632961599</v>
+        <v>26.06326286710185</v>
       </c>
       <c r="E115">
-        <v>51.82856212879636</v>
+        <v>47.75673713289814</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>10.33481788908805</v>
+        <v>36.91</v>
       </c>
       <c r="B116">
-        <v>-16.96659237740408</v>
+        <v>29.78666114178327</v>
       </c>
       <c r="C116">
-        <v>37.63622815558018</v>
+        <v>44.03333885821673</v>
       </c>
       <c r="D116">
-        <v>-31.41908596318296</v>
+        <v>26.01579333119033</v>
       </c>
       <c r="E116">
-        <v>52.08872174135906</v>
+        <v>47.80420666880966</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>10.56016958263882</v>
+        <v>36.91</v>
       </c>
       <c r="B117">
-        <v>-17.07098324711287</v>
+        <v>29.75575714046326</v>
       </c>
       <c r="C117">
-        <v>38.19132241239052</v>
+        <v>44.06424285953674</v>
       </c>
       <c r="D117">
-        <v>-31.69803200179876</v>
+        <v>25.96852973977982</v>
       </c>
       <c r="E117">
-        <v>52.8183711670764</v>
+        <v>47.85147026022018</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>10.6771860923616</v>
+        <v>36.91</v>
       </c>
       <c r="B118">
-        <v>-17.2850483078406</v>
+        <v>29.72498606142727</v>
       </c>
       <c r="C118">
-        <v>38.63942049256381</v>
+        <v>44.09501393857273</v>
       </c>
       <c r="D118">
-        <v>-32.08736105902334</v>
+        <v>25.92146943546008</v>
       </c>
       <c r="E118">
-        <v>53.44173324374655</v>
+        <v>47.89853056453992</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>10.65034616415103</v>
+        <v>36.91</v>
       </c>
       <c r="B119">
-        <v>-17.64430316478466</v>
+        <v>29.69434620413808</v>
       </c>
       <c r="C119">
-        <v>38.94499549308672</v>
+        <v>44.12565379586191</v>
       </c>
       <c r="D119">
-        <v>-32.62258574970284</v>
+        <v>25.87460981748386</v>
       </c>
       <c r="E119">
-        <v>53.92327807800491</v>
+        <v>47.94539018251614</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>10.34091970088921</v>
+        <v>36.91</v>
       </c>
       <c r="B120">
-        <v>-18.28747234169176</v>
+        <v>29.6638359040118</v>
       </c>
       <c r="C120">
-        <v>38.96931174347019</v>
+        <v>44.1561640959882</v>
       </c>
       <c r="D120">
-        <v>-33.4424276472195</v>
+        <v>25.82794834008976</v>
       </c>
       <c r="E120">
-        <v>54.12426704899792</v>
+        <v>47.99205165991023</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>10.07043042532474</v>
+        <v>36.91</v>
       </c>
       <c r="B121">
-        <v>-18.89302661620467</v>
+        <v>29.63345353136253</v>
       </c>
       <c r="C121">
-        <v>39.03388746685414</v>
+        <v>44.18654646863747</v>
       </c>
       <c r="D121">
-        <v>-34.22535461789911</v>
+        <v>25.78148251088831</v>
       </c>
       <c r="E121">
-        <v>54.36621546854859</v>
+        <v>48.03851748911168</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>9.925288095951887</v>
+        <v>36.91</v>
       </c>
       <c r="B122">
-        <v>-19.38645960528481</v>
+        <v>29.60319749038661</v>
       </c>
       <c r="C122">
-        <v>39.23703579718858</v>
+        <v>44.21680250961338</v>
       </c>
       <c r="D122">
-        <v>-34.90316154503858</v>
+        <v>25.73520988930842</v>
       </c>
       <c r="E122">
-        <v>54.75373773694235</v>
+        <v>48.08479011069157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>9.65220289580968</v>
+        <v>36.91</v>
       </c>
       <c r="B123">
-        <v>-19.99710252665132</v>
+        <v>29.57306621818457</v>
       </c>
       <c r="C123">
-        <v>39.30150831827068</v>
+        <v>44.24693378181543</v>
       </c>
       <c r="D123">
-        <v>-35.69249673003559</v>
+        <v>25.68912808510159</v>
       </c>
       <c r="E123">
-        <v>54.99690252165495</v>
+        <v>48.1308719148984</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>9.848976603154455</v>
+        <v>36.91</v>
       </c>
       <c r="B124">
-        <v>-20.13919529997892</v>
+        <v>29.54305818381898</v>
       </c>
       <c r="C124">
-        <v>39.83714850628783</v>
+        <v>44.27694181618102</v>
       </c>
       <c r="D124">
-        <v>-36.01397458239568</v>
+        <v>25.6432347569011</v>
       </c>
       <c r="E124">
-        <v>55.71192778870459</v>
+        <v>48.17676524309889</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>10.00224766695391</v>
+        <v>36.91</v>
       </c>
       <c r="B125">
-        <v>-20.32609418896221</v>
+        <v>29.51317188740684</v>
       </c>
       <c r="C125">
-        <v>40.33058952287003</v>
+        <v>44.30682811259315</v>
       </c>
       <c r="D125">
-        <v>-36.38094856686592</v>
+        <v>25.59752761083383</v>
       </c>
       <c r="E125">
-        <v>56.38544390077374</v>
+        <v>48.22247238916616</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>10.0213570465483</v>
+        <v>36.91</v>
       </c>
       <c r="B126">
-        <v>-20.6484530148546</v>
+        <v>29.48340585924473</v>
       </c>
       <c r="C126">
-        <v>40.69116710795121</v>
+        <v>44.33659414075527</v>
       </c>
       <c r="D126">
-        <v>-36.88406974171295</v>
+        <v>25.55200439918238</v>
       </c>
       <c r="E126">
-        <v>56.92678383480956</v>
+        <v>48.26799560081761</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>9.913942358850701</v>
+        <v>36.91</v>
       </c>
       <c r="B127">
-        <v>-21.09862900773192</v>
+        <v>29.45375865896546</v>
       </c>
       <c r="C127">
-        <v>40.92651372543332</v>
+        <v>44.36624134103453</v>
       </c>
       <c r="D127">
-        <v>-37.51569260917327</v>
+        <v>25.50666291909522</v>
       </c>
       <c r="E127">
-        <v>57.34357732687467</v>
+        <v>48.31333708090477</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>9.671860831620524</v>
+        <v>36.91</v>
       </c>
       <c r="B128">
-        <v>-21.68475985173296</v>
+        <v>29.42422887472476</v>
       </c>
       <c r="C128">
-        <v>41.02848151497401</v>
+        <v>44.39577112527523</v>
       </c>
       <c r="D128">
-        <v>-38.28395215990727</v>
+        <v>25.46150101134286</v>
       </c>
       <c r="E128">
-        <v>57.62767382314833</v>
+        <v>48.35849898865713</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>9.897212525171295</v>
+        <v>36.91</v>
       </c>
       <c r="B129">
-        <v>-21.80474046191414</v>
+        <v>29.39481512241671</v>
       </c>
       <c r="C129">
-        <v>41.59916551225673</v>
+        <v>44.42518487758328</v>
       </c>
       <c r="D129">
-        <v>-38.58674064909292</v>
+        <v>25.41651655911798</v>
       </c>
       <c r="E129">
-        <v>58.3811656994355</v>
+        <v>48.40348344088201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>10.01422903489407</v>
+        <v>36.91</v>
       </c>
       <c r="B130">
-        <v>-22.03433428033457</v>
+        <v>29.36551604491675</v>
       </c>
       <c r="C130">
-        <v>42.06279235012271</v>
+        <v>44.45448395508324</v>
       </c>
       <c r="D130">
-        <v>-38.99981889177412</v>
+        <v>25.37170748687767</v>
       </c>
       <c r="E130">
-        <v>59.02827696156226</v>
+        <v>48.44829251312232</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>9.987389106683505</v>
+        <v>36.91</v>
       </c>
       <c r="B131">
-        <v>-22.4090576592829</v>
+        <v>29.33633031135101</v>
       </c>
       <c r="C131">
-        <v>42.38383587264991</v>
+        <v>44.48366968864899</v>
       </c>
       <c r="D131">
-        <v>-39.55870064537452</v>
+        <v>25.32707175922599</v>
       </c>
       <c r="E131">
-        <v>59.53347885874153</v>
+        <v>48.49292824077401</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>9.677962643421683</v>
+        <v>36.91</v>
       </c>
       <c r="B132">
-        <v>-23.0676358534886</v>
+        <v>29.30725661639086</v>
       </c>
       <c r="C132">
-        <v>42.42356114033197</v>
+        <v>44.51274338360913</v>
       </c>
       <c r="D132">
-        <v>-40.40210860121795</v>
+        <v>25.28260737983508</v>
       </c>
       <c r="E132">
-        <v>59.75803388806132</v>
+        <v>48.53739262016492</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>9.407473367857211</v>
+        <v>36.91</v>
       </c>
       <c r="B133">
-        <v>-23.68854035597881</v>
+        <v>29.27829367957175</v>
       </c>
       <c r="C133">
-        <v>42.50348709169323</v>
+        <v>44.54170632042825</v>
       </c>
       <c r="D133">
-        <v>-41.20851171971624</v>
+        <v>25.23831239040338</v>
       </c>
       <c r="E133">
-        <v>60.02345845543067</v>
+        <v>48.58168760959661</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>9.26233103848436</v>
+        <v>36.91</v>
       </c>
       <c r="B134">
-        <v>-24.19674786399686</v>
+        <v>29.24944024463509</v>
       </c>
       <c r="C134">
-        <v>42.72140994096558</v>
+        <v>44.57055975536491</v>
       </c>
       <c r="D134">
-        <v>-41.90891432367882</v>
+        <v>25.1941848696492</v>
       </c>
       <c r="E134">
-        <v>60.43357640064755</v>
+        <v>48.6258151303508</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>8.989245838342153</v>
+        <v>36.91</v>
       </c>
       <c r="B135">
-        <v>-24.8226422560983</v>
+        <v>29.22069507889247</v>
       </c>
       <c r="C135">
-        <v>42.80113393278261</v>
+        <v>44.59930492110753</v>
       </c>
       <c r="D135">
-        <v>-42.72157462032598</v>
+        <v>25.15022293233829</v>
       </c>
       <c r="E135">
-        <v>60.70006629701028</v>
+        <v>48.66977706766171</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>9.186019545686929</v>
+        <v>36.91</v>
       </c>
       <c r="B136">
-        <v>-24.97992926908691</v>
+        <v>29.19205697261113</v>
       </c>
       <c r="C136">
-        <v>43.35196836046076</v>
+        <v>44.62794302738887</v>
       </c>
       <c r="D136">
-        <v>-43.06629005696179</v>
+        <v>25.10642472834405</v>
       </c>
       <c r="E136">
-        <v>61.43832914833565</v>
+        <v>48.71357527165594</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>9.339290609486387</v>
+        <v>36.91</v>
       </c>
       <c r="B137">
-        <v>-25.18196584167219</v>
+        <v>29.16352473841989</v>
       </c>
       <c r="C137">
-        <v>43.86054706064496</v>
+        <v>44.6564752615801</v>
       </c>
       <c r="D137">
-        <v>-43.4564151306796</v>
+        <v>25.06278844173898</v>
       </c>
       <c r="E137">
-        <v>62.13499634965238</v>
+        <v>48.75721155826101</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>9.358399989080775</v>
+        <v>36.91</v>
       </c>
       <c r="B138">
-        <v>-25.51940645607215</v>
+        <v>29.13509721073475</v>
       </c>
       <c r="C138">
-        <v>44.23620643423369</v>
+        <v>44.68490278926524</v>
       </c>
       <c r="D138">
-        <v>-43.9826019106041</v>
+        <v>25.01931228991616</v>
       </c>
       <c r="E138">
-        <v>62.69940188876565</v>
+        <v>48.80068771008384</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>9.250985301383174</v>
+        <v>36.91</v>
       </c>
       <c r="B139">
-        <v>-25.98460898970653</v>
+        <v>29.1067732452032</v>
       </c>
       <c r="C139">
-        <v>44.48657959247288</v>
+        <v>44.71322675479679</v>
       </c>
       <c r="D139">
-        <v>-44.63720588899893</v>
+        <v>24.97599452273946</v>
       </c>
       <c r="E139">
-        <v>63.13917649176528</v>
+        <v>48.84400547726053</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>9.008903774152998</v>
+        <v>36.91</v>
       </c>
       <c r="B140">
-        <v>-26.58571176085</v>
+        <v>29.07855171816677</v>
       </c>
       <c r="C140">
-        <v>44.603519309156</v>
+        <v>44.74144828183322</v>
       </c>
       <c r="D140">
-        <v>-45.42836302635158</v>
+        <v>24.93283342172156</v>
       </c>
       <c r="E140">
-        <v>63.44617057465758</v>
+        <v>48.88716657827843</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>9.234255467703768</v>
+        <v>36.91</v>
       </c>
       <c r="B141">
-        <v>-26.72061030588257</v>
+        <v>29.05043152614085</v>
       </c>
       <c r="C141">
-        <v>45.1891212412901</v>
+        <v>44.76956847385914</v>
       </c>
       <c r="D141">
-        <v>-45.75396652807245</v>
+        <v>24.88982729922837</v>
       </c>
       <c r="E141">
-        <v>64.22247746347998</v>
+        <v>48.93017270077163</v>
       </c>
     </row>
   </sheetData>
